--- a/Completed Projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final/Final Bill.xlsx
+++ b/Completed Projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final/Final Bill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC68DC5-9DE0-4D74-9AFD-C5785D7FAC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ED9B38-EF50-4F6B-B38E-CFD6E6871E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Fire 23rd'!$A$1:$O$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HVAC 22nd Floor'!$A$1:$P$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HVAC 23rd Floor'!$A$1:$P$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Fire 22nd'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Fire 23rd'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'HVAC 22nd Floor'!$1:$4</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="155">
   <si>
     <t>Sr.</t>
   </si>
@@ -2738,6 +2738,36 @@
   <si>
     <t>Final Bill</t>
   </si>
+  <si>
+    <t>Payable</t>
+  </si>
+  <si>
+    <t>Verified in IPC 1</t>
+  </si>
+  <si>
+    <t>Verified in IPC 2</t>
+  </si>
+  <si>
+    <t>Total Verified Bills</t>
+  </si>
+  <si>
+    <t>REC with Mob</t>
+  </si>
+  <si>
+    <t>Actaul Verified</t>
+  </si>
+  <si>
+    <t>Bill #</t>
+  </si>
+  <si>
+    <t>IPC 1</t>
+  </si>
+  <si>
+    <t>Verified Amount</t>
+  </si>
+  <si>
+    <t>IPC 2</t>
+  </si>
 </sst>
 </file>
 
@@ -2749,7 +2779,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3445,6 +3475,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3946,7 +3995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4515,6 +4564,24 @@
     <xf numFmtId="166" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="98" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="99" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4611,6 +4678,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4633,16 +4701,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>524868</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>143520</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>258168</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>248295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4665,7 +4733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8858250" y="1143000"/>
+          <a:off x="14668500" y="561975"/>
           <a:ext cx="7116168" cy="6601470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4761,6 +4829,50 @@
         <a:xfrm>
           <a:off x="9525" y="19050"/>
           <a:ext cx="1212639" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143641</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55D0D1F-A1AD-7299-1DA6-E5F9C722FAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="2790825"/>
+          <a:ext cx="5487166" cy="5182323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6360,7 +6472,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="760885" y="10904483"/>
+          <a:off x="678560" y="10940033"/>
           <a:ext cx="387350" cy="12700"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="387350" cy="12700"/>
@@ -6839,20 +6951,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF929F-FB20-4935-9641-63EA9CE81B38}">
-  <dimension ref="A4:E33"/>
+  <dimension ref="A4:N47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="122" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="122" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="122" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="122" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="122" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="122" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="116"/>
+    <col min="6" max="7" width="9.33203125" style="116"/>
+    <col min="8" max="8" width="11.5" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="116"/>
+    <col min="10" max="10" width="21.6640625" style="116" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" style="116" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" style="116"/>
+    <col min="14" max="14" width="16" style="116" customWidth="1"/>
+    <col min="15" max="16384" width="9.33203125" style="116"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6895,10 +7014,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="105" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="190" t="s">
+      <c r="A13" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="190"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
       <c r="E13" s="110"/>
@@ -6908,13 +7027,13 @@
       <c r="E14" s="110"/>
     </row>
     <row r="15" spans="1:5" s="105" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
     </row>
     <row r="16" spans="1:5" s="105" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
@@ -6923,7 +7042,7 @@
       <c r="D16" s="112"/>
       <c r="E16" s="112"/>
     </row>
-    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
         <v>117</v>
       </c>
@@ -6940,7 +7059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="150">
         <v>1</v>
       </c>
@@ -6959,8 +7078,12 @@
         <f>'HVAC 22nd Floor'!P69</f>
         <v>16598653.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N18" s="228">
+        <f>E18-16090510</f>
+        <v>508143.90000000037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="152">
         <v>2</v>
       </c>
@@ -6979,8 +7102,12 @@
         <f>'HVAC 23rd Floor'!P70</f>
         <v>16908976.649999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N19" s="228">
+        <f>E22-2757508</f>
+        <v>696949.19999999972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="154"/>
       <c r="B20" s="148" t="s">
         <v>120</v>
@@ -6992,14 +7119,14 @@
         <v>33507630.549999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="156"/>
       <c r="B21" s="157"/>
       <c r="C21" s="157"/>
       <c r="D21" s="157"/>
       <c r="E21" s="158"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="152">
         <v>3</v>
       </c>
@@ -7018,8 +7145,12 @@
         <f>'Fire 22nd'!O22</f>
         <v>3454457.1999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N22" s="228">
+        <f>E19-16305144</f>
+        <v>603832.64999999851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="152">
         <v>4</v>
       </c>
@@ -7038,8 +7169,12 @@
         <f>'Fire 23rd'!O23</f>
         <v>3154887.2199999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="N23" s="228">
+        <f>E23-2570922</f>
+        <v>583965.21999999974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="154"/>
       <c r="B24" s="148" t="s">
         <v>121</v>
@@ -7050,15 +7185,20 @@
         <f>E23+E22</f>
         <v>6609344.4199999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="228"/>
+      <c r="N24" s="228">
+        <f>SUM(N18:N23)</f>
+        <v>2392890.9699999983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="156"/>
       <c r="B25" s="157"/>
       <c r="C25" s="157"/>
       <c r="D25" s="157"/>
       <c r="E25" s="158"/>
     </row>
-    <row r="26" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="113"/>
       <c r="B26" s="114" t="s">
         <v>122</v>
@@ -7076,24 +7216,115 @@
         <v>40116974.969999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E27" s="123"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E28" s="132"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="124"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="124"/>
-      <c r="E30" s="132"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="192" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="121">
+        <v>35692766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="193" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="121">
+        <f>E26-E29</f>
+        <v>4424208.9699999988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E31" s="124"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="124"/>
+    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="191" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="121">
+        <v>35449032</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="121">
+        <v>6268508</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="191" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="121">
+        <f>E34+E33</f>
+        <v>41717540</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="191" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="121">
+        <v>37724079</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="121">
+        <f>E26-E38</f>
+        <v>2392895.9699999988</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="190"/>
+      <c r="C42" s="123"/>
+      <c r="J42" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" s="194" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="194" t="s">
+        <v>152</v>
+      </c>
+      <c r="K43" s="195">
+        <v>31455571</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="195">
+        <v>6268508</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="195">
+        <f>SUM(K43:K44)</f>
+        <v>37724079</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="194"/>
+    </row>
+    <row r="47" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7114,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E680CEF-CDBB-4B93-8860-904931DE0C82}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:P2"/>
     </sheetView>
   </sheetViews>
@@ -7146,69 +7377,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="203" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="209" t="s">
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="203" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="205" t="s">
+      <c r="A3" s="207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="211" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="207" t="s">
+      <c r="F3" s="213" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="207" t="s">
+      <c r="G3" s="213" t="s">
         <v>131</v>
       </c>
       <c r="H3" s="159" t="s">
@@ -7240,13 +7471,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="202"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
       <c r="J4" s="136"/>
@@ -7621,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="78"/>
-      <c r="Q14" s="192"/>
+      <c r="Q14" s="198"/>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
@@ -7670,7 +7901,7 @@
         <f>O15+K15</f>
         <v>40950</v>
       </c>
-      <c r="Q15" s="199"/>
+      <c r="Q15" s="205"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
@@ -7718,7 +7949,7 @@
         <f>O16+K16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="199"/>
+      <c r="Q16" s="205"/>
     </row>
     <row r="17" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
@@ -7766,7 +7997,7 @@
         <f>O17+K17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="199"/>
+      <c r="Q17" s="205"/>
     </row>
     <row r="18" spans="1:18" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
@@ -7801,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="78"/>
-      <c r="Q18" s="199"/>
+      <c r="Q18" s="205"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
@@ -7853,7 +8084,7 @@
         <f>O19+K19</f>
         <v>186900</v>
       </c>
-      <c r="Q19" s="199"/>
+      <c r="Q19" s="205"/>
     </row>
     <row r="20" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
@@ -7903,7 +8134,7 @@
         <f>O20+K20</f>
         <v>117600</v>
       </c>
-      <c r="Q20" s="199"/>
+      <c r="Q20" s="205"/>
     </row>
     <row r="21" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
@@ -7953,7 +8184,7 @@
         <f>O21+K21</f>
         <v>48300</v>
       </c>
-      <c r="Q21" s="199"/>
+      <c r="Q21" s="205"/>
     </row>
     <row r="22" spans="1:18" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39">
@@ -7989,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="78"/>
-      <c r="Q22" s="192"/>
+      <c r="Q22" s="198"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
@@ -8039,7 +8270,7 @@
         <f>O23+K23</f>
         <v>163636.19999999998</v>
       </c>
-      <c r="Q23" s="193"/>
+      <c r="Q23" s="199"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
@@ -8126,7 +8357,7 @@
       </c>
       <c r="P25" s="78"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="194"/>
+      <c r="R25" s="200"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
@@ -8177,7 +8408,7 @@
         <v>131818.04999999999</v>
       </c>
       <c r="Q26" s="18"/>
-      <c r="R26" s="195"/>
+      <c r="R26" s="201"/>
     </row>
     <row r="27" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
@@ -8228,7 +8459,7 @@
         <v>66942.75</v>
       </c>
       <c r="Q27" s="16"/>
-      <c r="R27" s="195"/>
+      <c r="R27" s="201"/>
     </row>
     <row r="28" spans="1:18" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
@@ -8281,7 +8512,7 @@
         <v>35910</v>
       </c>
       <c r="Q28" s="12"/>
-      <c r="R28" s="195"/>
+      <c r="R28" s="201"/>
     </row>
     <row r="29" spans="1:18" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
@@ -8318,7 +8549,7 @@
       </c>
       <c r="P29" s="72"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="196"/>
+      <c r="R29" s="202"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
@@ -8468,7 +8699,7 @@
         <v>576660</v>
       </c>
       <c r="Q32" s="15"/>
-      <c r="R32" s="194"/>
+      <c r="R32" s="200"/>
     </row>
     <row r="33" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
@@ -8518,7 +8749,7 @@
         <v>299355</v>
       </c>
       <c r="Q33" s="13"/>
-      <c r="R33" s="196"/>
+      <c r="R33" s="202"/>
     </row>
     <row r="34" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
@@ -10256,47 +10487,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="209" t="s">
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
       <c r="Q2" s="10"/>
       <c r="S2" s="186"/>
       <c r="T2" s="186"/>
@@ -10766,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="85"/>
-      <c r="Q13" s="192"/>
+      <c r="Q13" s="198"/>
       <c r="S13" s="186"/>
       <c r="T13" s="186"/>
       <c r="U13" s="186"/>
@@ -10818,7 +11049,7 @@
         <f>O14+K14</f>
         <v>40950</v>
       </c>
-      <c r="Q14" s="199"/>
+      <c r="Q14" s="205"/>
       <c r="S14" s="186"/>
       <c r="T14" s="186"/>
       <c r="U14" s="186"/>
@@ -10872,7 +11103,7 @@
         <f>O15+K15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="199"/>
+      <c r="Q15" s="205"/>
       <c r="S15" s="186"/>
       <c r="T15" s="186"/>
       <c r="U15" s="186"/>
@@ -10926,7 +11157,7 @@
         <f>O16+K16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="199"/>
+      <c r="Q16" s="205"/>
       <c r="S16" s="186"/>
       <c r="T16" s="186"/>
       <c r="U16" s="186"/>
@@ -10967,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="85"/>
-      <c r="Q17" s="199"/>
+      <c r="Q17" s="205"/>
       <c r="S17" s="186"/>
       <c r="T17" s="186"/>
       <c r="U17" s="186"/>
@@ -11023,7 +11254,7 @@
         <f>O18+K18</f>
         <v>186900</v>
       </c>
-      <c r="Q18" s="199"/>
+      <c r="Q18" s="205"/>
       <c r="S18" s="186"/>
       <c r="T18" s="186"/>
       <c r="U18" s="186"/>
@@ -11079,7 +11310,7 @@
         <f>O19+K19</f>
         <v>117600</v>
       </c>
-      <c r="Q19" s="199"/>
+      <c r="Q19" s="205"/>
       <c r="S19" s="186"/>
       <c r="T19" s="186"/>
       <c r="U19" s="186"/>
@@ -11135,7 +11366,7 @@
         <f>O20+K20</f>
         <v>44100</v>
       </c>
-      <c r="Q20" s="199"/>
+      <c r="Q20" s="205"/>
       <c r="S20" s="186"/>
       <c r="T20" s="186"/>
       <c r="U20" s="186"/>
@@ -11176,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="85"/>
-      <c r="Q21" s="192"/>
+      <c r="Q21" s="198"/>
       <c r="S21" s="186"/>
       <c r="T21" s="186"/>
       <c r="U21" s="186"/>
@@ -11230,7 +11461,7 @@
         <f>O22+K22</f>
         <v>163636.19999999998</v>
       </c>
-      <c r="Q22" s="193"/>
+      <c r="Q22" s="199"/>
       <c r="S22" s="186"/>
       <c r="T22" s="186"/>
       <c r="U22" s="186"/>
@@ -13687,7 +13918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C25DFE2-1E29-4804-9C8C-35BFC94D2CE6}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -13710,44 +13941,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="221" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="209" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="211"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
@@ -13797,7 +14028,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="224" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="65" t="s">
@@ -13838,7 +14069,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="219"/>
+      <c r="A5" s="225"/>
       <c r="B5" s="65" t="s">
         <v>96</v>
       </c>
@@ -13864,7 +14095,7 @@
       <c r="T5" s="186"/>
     </row>
     <row r="6" spans="1:20" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="219"/>
+      <c r="A6" s="225"/>
       <c r="B6" s="65" t="s">
         <v>97</v>
       </c>
@@ -13890,7 +14121,7 @@
       <c r="T6" s="186"/>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="219"/>
+      <c r="A7" s="225"/>
       <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
@@ -13944,7 +14175,7 @@
       <c r="T7" s="186"/>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="219"/>
+      <c r="A8" s="225"/>
       <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
@@ -13998,7 +14229,7 @@
       <c r="T8" s="186"/>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="219"/>
+      <c r="A9" s="225"/>
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
@@ -14052,7 +14283,7 @@
       <c r="T9" s="186"/>
     </row>
     <row r="10" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="219"/>
+      <c r="A10" s="225"/>
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
@@ -14106,7 +14337,7 @@
       <c r="T10" s="186"/>
     </row>
     <row r="11" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="219"/>
+      <c r="A11" s="225"/>
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
@@ -14156,7 +14387,7 @@
       <c r="T11" s="186"/>
     </row>
     <row r="12" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="219"/>
+      <c r="A12" s="225"/>
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -14206,7 +14437,7 @@
       <c r="T12" s="186"/>
     </row>
     <row r="13" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="8" t="s">
         <v>98</v>
       </c>
@@ -14690,38 +14921,38 @@
       <c r="T22" s="188"/>
     </row>
     <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="220"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="221"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="221"/>
+      <c r="A23" s="226"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="227"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="227"/>
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="213"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="220"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14745,7 +14976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C8B3FC-4370-4A51-A5E5-5724AC39AA1F}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -14769,44 +15000,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="222" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="221" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="209" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="211"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
@@ -14856,7 +15087,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="224" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="65" t="s">
@@ -14904,7 +15135,7 @@
       <c r="T4" s="186"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="225"/>
       <c r="B5" s="65" t="s">
         <v>96</v>
       </c>
@@ -14927,7 +15158,7 @@
       <c r="T5" s="186"/>
     </row>
     <row r="6" spans="1:20" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="219"/>
+      <c r="A6" s="225"/>
       <c r="B6" s="65" t="s">
         <v>97</v>
       </c>
@@ -14950,7 +15181,7 @@
       <c r="T6" s="186"/>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="225"/>
       <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
@@ -15005,7 +15236,7 @@
       <c r="T7" s="186"/>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="225"/>
       <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
@@ -15055,7 +15286,7 @@
       <c r="T8" s="186"/>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="219"/>
+      <c r="A9" s="225"/>
       <c r="B9" s="8" t="s">
         <v>44</v>
       </c>
@@ -15105,7 +15336,7 @@
       <c r="T9" s="186"/>
     </row>
     <row r="10" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="219"/>
+      <c r="A10" s="225"/>
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
@@ -15155,7 +15386,7 @@
       <c r="T10" s="186"/>
     </row>
     <row r="11" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="219"/>
+      <c r="A11" s="225"/>
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
@@ -15205,7 +15436,7 @@
       <c r="T11" s="186"/>
     </row>
     <row r="12" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="219"/>
+      <c r="A12" s="225"/>
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -15255,7 +15486,7 @@
       <c r="T12" s="186"/>
     </row>
     <row r="13" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="219"/>
+      <c r="A13" s="225"/>
       <c r="B13" s="8" t="s">
         <v>98</v>
       </c>
@@ -15792,38 +16023,38 @@
       <c r="T23" s="188"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="220"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="221"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="221"/>
-      <c r="O24" s="221"/>
+      <c r="A24" s="226"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="227"/>
+      <c r="M24" s="227"/>
+      <c r="N24" s="227"/>
+      <c r="O24" s="227"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="213"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="214"/>
+      <c r="A25" s="219"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="220"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
+      <c r="M25" s="220"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="220"/>
     </row>
     <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="S27" s="189"/>
